--- a/data/副本1.12duoren2019-09-26.xlsx
+++ b/data/副本1.12duoren2019-09-26.xlsx
@@ -487,7 +487,7 @@
   <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M3" sqref="M3:M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -568,10 +568,7 @@
       <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="9" t="str">
-        <f ca="1">TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")</f>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M2" s="9"/>
       <c r="N2" s="6"/>
       <c r="R2" s="1" t="s">
         <v>17</v>
@@ -590,10 +587,7 @@
       <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="9" t="str">
-        <f t="shared" ref="M3:M66" ca="1" si="0">TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")</f>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M3" s="9"/>
       <c r="N3" s="6"/>
       <c r="R3" s="1" t="s">
         <v>18</v>
@@ -612,10 +606,7 @@
       <c r="E4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M4" s="9"/>
       <c r="N4" s="6"/>
       <c r="R4" s="1" t="s">
         <v>19</v>
@@ -635,10 +626,7 @@
         <v>25</v>
       </c>
       <c r="K5" s="8"/>
-      <c r="M5" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M5" s="9"/>
       <c r="R5" s="1" t="s">
         <v>20</v>
       </c>
@@ -656,10 +644,7 @@
       <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M6" s="9"/>
       <c r="R6" s="1" t="s">
         <v>21</v>
       </c>
@@ -677,10 +662,7 @@
       <c r="E7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M7" s="9"/>
       <c r="R7" s="1" t="s">
         <v>22</v>
       </c>
@@ -698,10 +680,7 @@
       <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M8" s="9"/>
       <c r="R8" s="1" t="s">
         <v>23</v>
       </c>
@@ -719,10 +698,7 @@
       <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M9" s="9"/>
       <c r="R9" s="1" t="s">
         <v>24</v>
       </c>
@@ -740,10 +716,7 @@
       <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="7">
@@ -758,10 +731,7 @@
       <c r="E11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="7">
@@ -776,10 +746,7 @@
       <c r="E12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="7">
@@ -794,10 +761,7 @@
       <c r="E13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="7">
@@ -812,10 +776,7 @@
       <c r="E14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:18">
       <c r="B15" s="7">
@@ -830,10 +791,7 @@
       <c r="E15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:18">
       <c r="B16" s="7">
@@ -848,10 +806,7 @@
       <c r="E16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="7">
@@ -866,10 +821,7 @@
       <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="7">
@@ -884,10 +836,7 @@
       <c r="E18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="7">
@@ -902,10 +851,7 @@
       <c r="E19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="7">
@@ -920,10 +866,7 @@
       <c r="E20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="7">
@@ -938,10 +881,7 @@
       <c r="E21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="7">
@@ -956,10 +896,7 @@
       <c r="E22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="7">
@@ -974,10 +911,7 @@
       <c r="E23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="7">
@@ -992,10 +926,7 @@
       <c r="E24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M24" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="7">
@@ -1010,10 +941,7 @@
       <c r="E25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M25" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="7">
@@ -1028,10 +956,7 @@
       <c r="E26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M26" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="7">
@@ -1046,10 +971,7 @@
       <c r="E27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M27" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="7">
@@ -1064,10 +986,7 @@
       <c r="E28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="7">
@@ -1082,10 +1001,7 @@
       <c r="E29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="7">
@@ -1100,10 +1016,7 @@
       <c r="E30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M30" s="9"/>
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="7">
@@ -1118,10 +1031,7 @@
       <c r="E31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M31" s="9"/>
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="7">
@@ -1136,10 +1046,7 @@
       <c r="E32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M32" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="7">
@@ -1154,10 +1061,7 @@
       <c r="E33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="7">
@@ -1172,10 +1076,7 @@
       <c r="E34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M34" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M34" s="9"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="7">
@@ -1190,10 +1091,7 @@
       <c r="E35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M35" s="9"/>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="7">
@@ -1208,10 +1106,7 @@
       <c r="E36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M36" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="7">
@@ -1226,10 +1121,7 @@
       <c r="E37" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M37" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="7">
@@ -1244,10 +1136,7 @@
       <c r="E38" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M38" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M38" s="9"/>
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="7">
@@ -1262,10 +1151,7 @@
       <c r="E39" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M39" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M39" s="9"/>
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="7">
@@ -1280,10 +1166,7 @@
       <c r="E40" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M40" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M40" s="9"/>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" s="7">
@@ -1298,10 +1181,7 @@
       <c r="E41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M41" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M41" s="9"/>
     </row>
     <row r="42" spans="2:13">
       <c r="B42" s="7">
@@ -1316,10 +1196,7 @@
       <c r="E42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M42" s="9"/>
     </row>
     <row r="43" spans="2:13">
       <c r="B43" s="7">
@@ -1334,10 +1211,7 @@
       <c r="E43" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M43" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M43" s="9"/>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="7">
@@ -1352,10 +1226,7 @@
       <c r="E44" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M44" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M44" s="9"/>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="7">
@@ -1370,10 +1241,7 @@
       <c r="E45" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M45" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M45" s="9"/>
     </row>
     <row r="46" spans="2:13">
       <c r="B46" s="7">
@@ -1388,10 +1256,7 @@
       <c r="E46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M46" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M46" s="9"/>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" s="7">
@@ -1406,10 +1271,7 @@
       <c r="E47" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M47" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M47" s="9"/>
     </row>
     <row r="48" spans="2:13">
       <c r="B48" s="7">
@@ -1424,10 +1286,7 @@
       <c r="E48" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M48" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M48" s="9"/>
     </row>
     <row r="49" spans="2:13">
       <c r="B49" s="7">
@@ -1442,10 +1301,7 @@
       <c r="E49" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M49" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M49" s="9"/>
     </row>
     <row r="50" spans="2:13">
       <c r="B50" s="7">
@@ -1460,10 +1316,7 @@
       <c r="E50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M50" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M50" s="9"/>
     </row>
     <row r="51" spans="2:13">
       <c r="B51" s="7">
@@ -1478,10 +1331,7 @@
       <c r="E51" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M51" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M51" s="9"/>
     </row>
     <row r="52" spans="2:13">
       <c r="B52" s="7">
@@ -1496,10 +1346,7 @@
       <c r="E52" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M52" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M52" s="9"/>
     </row>
     <row r="53" spans="2:13">
       <c r="B53" s="7">
@@ -1514,10 +1361,7 @@
       <c r="E53" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M53" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M53" s="9"/>
     </row>
     <row r="54" spans="2:13">
       <c r="B54" s="7">
@@ -1532,10 +1376,7 @@
       <c r="E54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M54" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M54" s="9"/>
     </row>
     <row r="55" spans="2:13">
       <c r="B55" s="7">
@@ -1550,10 +1391,7 @@
       <c r="E55" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M55" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M55" s="9"/>
     </row>
     <row r="56" spans="2:13">
       <c r="B56" s="7">
@@ -1568,10 +1406,7 @@
       <c r="E56" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M56" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M56" s="9"/>
     </row>
     <row r="57" spans="2:13">
       <c r="B57" s="7">
@@ -1586,10 +1421,7 @@
       <c r="E57" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M57" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M57" s="9"/>
     </row>
     <row r="58" spans="2:13">
       <c r="B58" s="7">
@@ -1604,10 +1436,7 @@
       <c r="E58" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M58" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M58" s="9"/>
     </row>
     <row r="59" spans="2:13">
       <c r="B59" s="7">
@@ -1622,10 +1451,7 @@
       <c r="E59" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M59" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M59" s="9"/>
     </row>
     <row r="60" spans="2:13">
       <c r="B60" s="7">
@@ -1640,10 +1466,7 @@
       <c r="E60" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M60" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M60" s="9"/>
     </row>
     <row r="61" spans="2:13">
       <c r="B61" s="7">
@@ -1658,10 +1481,7 @@
       <c r="E61" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M61" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M61" s="9"/>
     </row>
     <row r="62" spans="2:13">
       <c r="B62" s="7">
@@ -1676,10 +1496,7 @@
       <c r="E62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M62" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M62" s="9"/>
     </row>
     <row r="63" spans="2:13">
       <c r="B63" s="7">
@@ -1694,10 +1511,7 @@
       <c r="E63" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M63" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M63" s="9"/>
     </row>
     <row r="64" spans="2:13">
       <c r="B64" s="7">
@@ -1712,10 +1526,7 @@
       <c r="E64" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M64" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M64" s="9"/>
     </row>
     <row r="65" spans="2:13">
       <c r="B65" s="7">
@@ -1730,10 +1541,7 @@
       <c r="E65" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M65" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M65" s="9"/>
     </row>
     <row r="66" spans="2:13">
       <c r="B66" s="7">
@@ -1748,10 +1556,7 @@
       <c r="E66" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M66" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M66" s="9"/>
     </row>
     <row r="67" spans="2:13">
       <c r="B67" s="7">
@@ -1766,10 +1571,7 @@
       <c r="E67" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M67" s="9" t="str">
-        <f t="shared" ref="M67:M77" ca="1" si="1">TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")</f>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M67" s="9"/>
     </row>
     <row r="68" spans="2:13">
       <c r="B68" s="7">
@@ -1784,10 +1586,7 @@
       <c r="E68" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M68" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M68" s="9"/>
     </row>
     <row r="69" spans="2:13">
       <c r="B69" s="7">
@@ -1802,10 +1601,7 @@
       <c r="E69" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M69" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M69" s="9"/>
     </row>
     <row r="70" spans="2:13">
       <c r="B70" s="7">
@@ -1820,10 +1616,7 @@
       <c r="E70" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M70" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M70" s="9"/>
     </row>
     <row r="71" spans="2:13">
       <c r="B71" s="7">
@@ -1838,10 +1631,7 @@
       <c r="E71" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M71" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M71" s="9"/>
     </row>
     <row r="72" spans="2:13">
       <c r="B72" s="7">
@@ -1856,10 +1646,7 @@
       <c r="E72" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M72" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M72" s="9"/>
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="7">
@@ -1874,10 +1661,7 @@
       <c r="E73" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M73" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M73" s="9"/>
     </row>
     <row r="74" spans="2:13">
       <c r="B74" s="7">
@@ -1892,10 +1676,7 @@
       <c r="E74" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M74" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M74" s="9"/>
     </row>
     <row r="75" spans="2:13">
       <c r="B75" s="7">
@@ -1910,10 +1691,7 @@
       <c r="E75" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M75" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M75" s="9"/>
     </row>
     <row r="76" spans="2:13">
       <c r="B76" s="7">
@@ -1928,10 +1706,7 @@
       <c r="E76" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M76" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M76" s="9"/>
     </row>
     <row r="77" spans="2:13">
       <c r="B77" s="7">
@@ -1946,10 +1721,7 @@
       <c r="E77" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M77" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2019-10-21 14:26:36</v>
-      </c>
+      <c r="M77" s="9"/>
     </row>
     <row r="78" spans="2:13">
       <c r="B78" s="7"/>
